--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -1739,9 +1739,6 @@
     <t>K13544920</t>
   </si>
   <si>
-    <t>0142686703700923089100</t>
-  </si>
-  <si>
     <t>0142686703700923078249</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>May_2018</t>
+  </si>
+  <si>
+    <t>0142686703700923089110</t>
   </si>
 </sst>
 </file>
@@ -4172,7 +4172,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5589,7 +5589,7 @@
   <dimension ref="A1:C877"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -10730,7 +10730,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10850,7 +10850,7 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>385</v>
+        <v>560</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>562</v>
@@ -10871,16 +10871,16 @@
         <v>326</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>409</v>
       </c>
       <c r="K3" s="111">
-        <v>10001040</v>
+        <v>46878144</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>569</v>
+        <v>578</v>
       </c>
       <c r="M3" s="7">
         <v>1000</v>
@@ -10892,10 +10892,10 @@
         <v>489</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>416</v>
@@ -10933,7 +10933,7 @@
         <v>326</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>409</v>
@@ -10942,7 +10942,7 @@
         <v>100002701</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M4" s="7">
         <v>1000</v>
@@ -10954,10 +10954,10 @@
         <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>416</v>
@@ -10974,7 +10974,7 @@
         <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>560</v>
+        <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>563</v>
@@ -10995,13 +10995,13 @@
         <v>326</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>486</v>
       </c>
       <c r="K5" s="111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L5" s="87"/>
       <c r="M5" s="7">
@@ -11014,10 +11014,10 @@
         <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>416</v>
@@ -11055,13 +11055,13 @@
         <v>326</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K6" s="111" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="7">
@@ -11074,10 +11074,10 @@
         <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>416</v>
@@ -11115,13 +11115,13 @@
         <v>326</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L7" s="86"/>
       <c r="M7" s="7">
@@ -11134,10 +11134,10 @@
         <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>416</v>
@@ -11175,13 +11175,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K8" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L8" s="86"/>
       <c r="M8" s="7">
@@ -11194,10 +11194,10 @@
         <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>416</v>
@@ -11235,13 +11235,13 @@
         <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K9" s="111" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="L9" s="88"/>
       <c r="M9" s="7">
@@ -11254,10 +11254,10 @@
         <v>448</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>416</v>
@@ -11295,7 +11295,7 @@
         <v>326</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>443</v>
@@ -11312,10 +11312,10 @@
         <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>416</v>
@@ -11341,7 +11341,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
       <c r="I11" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="113"/>
@@ -11350,10 +11350,10 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
       <c r="P11" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>416</v>
@@ -11375,7 +11375,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="52"/>
       <c r="I12" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="113"/>
@@ -11384,10 +11384,10 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
       <c r="P12" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>416</v>
@@ -11409,7 +11409,7 @@
       <c r="G13" s="54"/>
       <c r="H13" s="52"/>
       <c r="I13" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="113"/>
@@ -11418,10 +11418,10 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>416</v>
@@ -11455,7 +11455,7 @@
         <v>326</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>328</v>
@@ -11476,10 +11476,10 @@
         <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>416</v>
@@ -11505,7 +11505,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="111"/>
@@ -11514,10 +11514,10 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>416</v>
@@ -11539,7 +11539,7 @@
       <c r="G16" s="54"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="113"/>
@@ -11548,10 +11548,10 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>416</v>
@@ -11585,7 +11585,7 @@
         <v>326</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>437</v>
@@ -11606,10 +11606,10 @@
         <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>416</v>
@@ -11647,7 +11647,7 @@
         <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>444</v>
@@ -11664,10 +11664,10 @@
         <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>416</v>
@@ -11829,7 +11829,7 @@
   <dimension ref="A1:Y151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15815,8 +15815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BG172"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BG13" sqref="BG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16185,7 +16185,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="43">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F3" s="42" t="s">
         <v>329</v>

--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -1490,9 +1490,6 @@
     <t>FF_MASTER_PROCESS_REDESIGN</t>
   </si>
   <si>
-    <t>FulfillmentMasterProcess-Redeisgn</t>
-  </si>
-  <si>
     <t>"FF_MASTER_PROCESS_REDESIGN_FF_Response"</t>
   </si>
   <si>
@@ -1767,6 +1764,9 @@
   </si>
   <si>
     <t>0142686703700923089110</t>
+  </si>
+  <si>
+    <t>FulfillmentMasterProcess-Redesign</t>
   </si>
 </sst>
 </file>
@@ -4775,7 +4775,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,7 +4789,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,7 +4827,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,7 +4839,7 @@
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,7 +4851,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4863,7 +4863,7 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5011,7 +5011,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>321</v>
@@ -5126,7 +5126,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -5134,7 +5134,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -5258,12 +5258,12 @@
     </row>
     <row r="59" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,12 +5288,12 @@
     </row>
     <row r="65" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -10730,7 +10730,7 @@
   <dimension ref="A1:T36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10821,10 +10821,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
+        <v>558</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>559</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>560</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10850,13 +10850,13 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>335</v>
@@ -10871,7 +10871,7 @@
         <v>326</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>409</v>
@@ -10880,7 +10880,7 @@
         <v>46878144</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M3" s="7">
         <v>1000</v>
@@ -10889,13 +10889,13 @@
         <v>415</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>416</v>
@@ -10912,13 +10912,13 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>335</v>
@@ -10933,7 +10933,7 @@
         <v>326</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>409</v>
@@ -10942,7 +10942,7 @@
         <v>100002701</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M4" s="7">
         <v>1000</v>
@@ -10954,10 +10954,10 @@
         <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>416</v>
@@ -10977,10 +10977,10 @@
         <v>385</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>335</v>
@@ -10995,13 +10995,13 @@
         <v>326</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
+        <v>578</v>
       </c>
       <c r="K5" s="111" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="L5" s="87"/>
       <c r="M5" s="7">
@@ -11014,10 +11014,10 @@
         <v>415</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>416</v>
@@ -11034,13 +11034,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>335</v>
@@ -11055,13 +11055,13 @@
         <v>326</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K6" s="111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="7">
@@ -11074,10 +11074,10 @@
         <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>416</v>
@@ -11094,13 +11094,13 @@
         <v>420</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>335</v>
@@ -11115,13 +11115,13 @@
         <v>326</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="L7" s="86"/>
       <c r="M7" s="7">
@@ -11134,10 +11134,10 @@
         <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>416</v>
@@ -11154,13 +11154,13 @@
         <v>418</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>335</v>
@@ -11175,13 +11175,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K8" s="111" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="L8" s="86"/>
       <c r="M8" s="7">
@@ -11194,10 +11194,10 @@
         <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>416</v>
@@ -11214,13 +11214,13 @@
         <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>335</v>
@@ -11235,13 +11235,13 @@
         <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K9" s="111" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="L9" s="88"/>
       <c r="M9" s="7">
@@ -11254,10 +11254,10 @@
         <v>448</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>416</v>
@@ -11274,13 +11274,13 @@
         <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>335</v>
@@ -11295,7 +11295,7 @@
         <v>326</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>443</v>
@@ -11312,10 +11312,10 @@
         <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>416</v>
@@ -11332,7 +11332,7 @@
         <v>422</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -11341,7 +11341,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
       <c r="I11" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="113"/>
@@ -11350,10 +11350,10 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
       <c r="P11" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>416</v>
@@ -11366,7 +11366,7 @@
         <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -11375,7 +11375,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="52"/>
       <c r="I12" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="113"/>
@@ -11384,10 +11384,10 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>416</v>
@@ -11400,7 +11400,7 @@
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -11409,7 +11409,7 @@
       <c r="G13" s="54"/>
       <c r="H13" s="52"/>
       <c r="I13" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="113"/>
@@ -11418,10 +11418,10 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>416</v>
@@ -11434,13 +11434,13 @@
         <v>414</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>335</v>
@@ -11455,7 +11455,7 @@
         <v>326</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>328</v>
@@ -11476,10 +11476,10 @@
         <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>416</v>
@@ -11496,7 +11496,7 @@
         <v>425</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11505,7 +11505,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="111"/>
@@ -11514,10 +11514,10 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>416</v>
@@ -11530,7 +11530,7 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -11539,7 +11539,7 @@
       <c r="G16" s="54"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="113"/>
@@ -11548,10 +11548,10 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>416</v>
@@ -11564,13 +11564,13 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>335</v>
@@ -11585,13 +11585,13 @@
         <v>326</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>437</v>
       </c>
       <c r="K17" s="111" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L17" s="91">
         <v>1287755590</v>
@@ -11606,10 +11606,10 @@
         <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>416</v>
@@ -11626,13 +11626,13 @@
         <v>471</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>335</v>
@@ -11647,13 +11647,13 @@
         <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>444</v>
       </c>
       <c r="K18" s="111" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L18" s="86"/>
       <c r="M18" s="7"/>
@@ -11664,10 +11664,10 @@
         <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>416</v>
@@ -11828,8 +11828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11910,7 +11910,7 @@
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Y1" s="39"/>
     </row>
@@ -12050,7 +12050,7 @@
         <v>480</v>
       </c>
       <c r="X3" s="42" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
@@ -12120,19 +12120,19 @@
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K5" s="43"/>
       <c r="L5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="42" t="s">
@@ -12144,11 +12144,11 @@
       </c>
       <c r="S5" s="43"/>
       <c r="T5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="42"/>
@@ -12234,18 +12234,18 @@
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="P7" s="96" t="s">
         <v>468</v>
@@ -12256,10 +12256,10 @@
       </c>
       <c r="S7" s="43"/>
       <c r="T7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="V7" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="42"/>
@@ -12301,7 +12301,7 @@
         <v>380</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R8" s="42" t="s">
         <v>380</v>
@@ -12355,7 +12355,7 @@
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="94" t="s">
@@ -12378,20 +12378,20 @@
         <v>293</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C10" s="43" t="s">
         <v>381</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="42" t="s">
         <v>380</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H10" s="42" t="s">
         <v>398</v>
@@ -12413,7 +12413,7 @@
         <v>358</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="R10" s="42" t="s">
         <v>404</v>
@@ -12445,7 +12445,7 @@
         <v>381</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="G11" s="43"/>
       <c r="H11" s="42" t="s">
@@ -12465,11 +12465,11 @@
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S11" s="43"/>
       <c r="T11" s="42" t="s">
@@ -12488,20 +12488,20 @@
         <v>295</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C12" s="43" t="s">
         <v>381</v>
       </c>
       <c r="D12" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
         <v>358</v>
       </c>
       <c r="G12" s="43" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H12" s="42" t="s">
         <v>400</v>
@@ -12554,7 +12554,7 @@
         <v>382</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G13" s="43"/>
       <c r="H13" s="42" t="s">
@@ -12586,7 +12586,7 @@
       </c>
       <c r="Q13" s="43"/>
       <c r="R13" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="T13" s="42" t="s">
         <v>380</v>
@@ -12621,28 +12621,28 @@
         <v>405</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I14" s="60" t="s">
         <v>451</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>455</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>465</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>467</v>
@@ -12671,11 +12671,11 @@
         <v>298</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>382</v>
@@ -12684,7 +12684,7 @@
         <v>404</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H15" s="94" t="s">
         <v>459</v>
@@ -12709,13 +12709,13 @@
       </c>
       <c r="S15" s="43"/>
       <c r="T15" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U15" s="42" t="s">
         <v>475</v>
       </c>
       <c r="V15" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="42"/>
@@ -12738,37 +12738,37 @@
         <v>382</v>
       </c>
       <c r="F16" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="H16" s="42" t="s">
         <v>543</v>
-      </c>
-      <c r="G16" s="43" t="s">
-        <v>488</v>
-      </c>
-      <c r="H16" s="42" t="s">
-        <v>544</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S16" s="43" t="s">
         <v>382</v>
       </c>
       <c r="T16" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="42" t="s">
@@ -12785,19 +12785,19 @@
         <v>300</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C17" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D17" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F17" s="42" t="s">
         <v>380</v>
       </c>
       <c r="G17" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>358</v>
@@ -12838,7 +12838,7 @@
         <v>475</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="42"/>
@@ -12859,32 +12859,32 @@
         <v>382</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S18" s="43"/>
       <c r="T18" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="42" t="s">
@@ -12899,20 +12899,20 @@
         <v>302</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C19" s="43" t="s">
         <v>382</v>
       </c>
       <c r="D19" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="42" t="s">
         <v>358</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H19" s="42" t="s">
         <v>405</v>
@@ -12962,7 +12962,7 @@
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="42" t="s">
@@ -12984,7 +12984,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="42" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="S20" s="43"/>
       <c r="T20" s="42" t="s">
@@ -15816,7 +15816,7 @@
   <dimension ref="A1:BG172"/>
   <sheetViews>
     <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG13" sqref="BG13"/>
+      <selection activeCell="BG3" sqref="BG3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15914,19 +15914,19 @@
       </c>
       <c r="O1" s="39"/>
       <c r="P1" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q1" s="39"/>
       <c r="R1" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S1" s="39"/>
       <c r="T1" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="4" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="4" t="s">
@@ -16209,14 +16209,14 @@
         <v>373</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>380</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="42" t="s">
@@ -16261,49 +16261,49 @@
         <v>373</v>
       </c>
       <c r="AG3" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI3" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AJ3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK3" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AL3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM3" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO3" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AP3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ3" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AR3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS3" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU3" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV3" s="42" t="s">
         <v>373</v>
@@ -16315,25 +16315,25 @@
         <v>373</v>
       </c>
       <c r="AY3" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AZ3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA3" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BB3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC3" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BD3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE3" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="BF3" s="44" t="s">
         <v>482</v>
@@ -16518,7 +16518,7 @@
         <v>373</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
@@ -16554,49 +16554,49 @@
         <v>373</v>
       </c>
       <c r="AG5" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI5" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AJ5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK5" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AL5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM5" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO5" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AP5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ5" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AR5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS5" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AT5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU5" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AV5" s="42" t="s">
         <v>373</v>
@@ -16608,25 +16608,25 @@
         <v>373</v>
       </c>
       <c r="AY5" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AZ5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA5" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BB5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC5" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BD5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE5" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -16772,7 +16772,7 @@
         <v>373</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -16798,49 +16798,49 @@
         <v>373</v>
       </c>
       <c r="AG7" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AH7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI7" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK7" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM7" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO7" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AP7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ7" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AR7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS7" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU7" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AV7" s="42"/>
       <c r="AW7" s="43"/>
@@ -16848,25 +16848,25 @@
         <v>373</v>
       </c>
       <c r="AY7" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA7" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BB7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC7" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="BD7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE7" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -17000,7 +17000,7 @@
         <v>373</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -17026,49 +17026,49 @@
         <v>373</v>
       </c>
       <c r="AG9" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI9" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AJ9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK9" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AL9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM9" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AN9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO9" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AP9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ9" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AR9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS9" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AT9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU9" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AV9" s="42"/>
       <c r="AW9" s="43"/>
@@ -17076,25 +17076,25 @@
         <v>373</v>
       </c>
       <c r="AY9" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AZ9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA9" s="43" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="BB9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC9" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BD9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE9" s="43" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -17131,7 +17131,7 @@
         <v>345</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
@@ -17230,7 +17230,7 @@
         <v>373</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -17254,7 +17254,7 @@
         <v>373</v>
       </c>
       <c r="AG11" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AH11" s="42"/>
       <c r="AI11" s="43"/>
@@ -17262,7 +17262,7 @@
         <v>373</v>
       </c>
       <c r="AK11" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AL11" s="42"/>
       <c r="AM11" s="43"/>
@@ -17270,7 +17270,7 @@
         <v>373</v>
       </c>
       <c r="AO11" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AP11" s="42"/>
       <c r="AQ11" s="43"/>
@@ -17278,7 +17278,7 @@
         <v>373</v>
       </c>
       <c r="AS11" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AT11" s="42"/>
       <c r="AU11" s="43"/>
@@ -17288,7 +17288,7 @@
         <v>373</v>
       </c>
       <c r="AY11" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AZ11" s="42"/>
       <c r="BA11" s="43"/>
@@ -17296,7 +17296,7 @@
         <v>373</v>
       </c>
       <c r="BC11" s="43" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="BD11" s="42"/>
       <c r="BE11" s="43"/>

--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBD28431-C6CA-4C12-916F-AB5F62200323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <definedName name="ObjectClass_List">OFFSET(Customize!$B$2,0,0,COUNTA(Customize!$B:$B)-1)</definedName>
     <definedName name="TestEnv_List">OFFSET(Customize!$D$2,0,0,COUNTA(Customize!$D:$D)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="584">
   <si>
     <t>Event_Name</t>
   </si>
@@ -1490,9 +1496,6 @@
     <t>FF_MASTER_PROCESS_REDESIGN</t>
   </si>
   <si>
-    <t>FulfillmentMasterProcess-Redeisgn</t>
-  </si>
-  <si>
     <t>"FF_MASTER_PROCESS_REDESIGN_FF_Response"</t>
   </si>
   <si>
@@ -1517,9 +1520,6 @@
     <t>"PureTv_VDP_CAI",FileLocation,Tagtobereplaced,TagValue</t>
   </si>
   <si>
-    <t>"Q1",FileLocation,Tagtobereplaced,TagValue</t>
-  </si>
-  <si>
     <t>"Q2",FileLocation,Tagtobereplaced,TagValue</t>
   </si>
   <si>
@@ -1742,9 +1742,6 @@
     <t>0142686703700923078249</t>
   </si>
   <si>
-    <t>N25577606</t>
-  </si>
-  <si>
     <t>K13543962</t>
   </si>
   <si>
@@ -1766,17 +1763,41 @@
     <t>May_2018</t>
   </si>
   <si>
-    <t>0142686703700923089110</t>
+    <t>"MDW Web"</t>
+  </si>
+  <si>
+    <t>IOM_LoginPage</t>
+  </si>
+  <si>
+    <t>TEST_ENV, IOM_LoginPage</t>
+  </si>
+  <si>
+    <t>FulfillmentMasterProcess-Redesign</t>
+  </si>
+  <si>
+    <t>Q.ORDEH115.ORDEH.EVENT.UPDA.ORDEH116</t>
+  </si>
+  <si>
+    <t>10293845tg123</t>
+  </si>
+  <si>
+    <t>N51436498</t>
+  </si>
+  <si>
+    <t>"Resp_RequestId",FileLocation,Tagtobereplaced,TagValue</t>
+  </si>
+  <si>
+    <t>13745993001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1914,18 @@
       <color rgb="FF00B050"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2125,7 +2158,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2420,6 +2453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,10 +2480,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Normal_Object_Description" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Object_Description" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="140">
     <dxf>
@@ -3878,6 +3917,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3925,7 +3967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3958,9 +4000,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3993,6 +4052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4168,11 +4244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4188,38 +4264,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="119" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="121" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4726,7 +4802,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ObjectClass_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -4735,12 +4811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4775,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,7 +4863,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,7 +4901,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,7 +4913,7 @@
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,7 +4925,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4863,7 +4937,7 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5011,7 +5085,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>321</v>
@@ -5126,7 +5200,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -5134,7 +5208,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -5142,7 +5216,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -5258,12 +5332,12 @@
     </row>
     <row r="59" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,12 +5362,12 @@
     </row>
     <row r="65" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5585,11 +5659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C877"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6701,9 +6775,15 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="34"/>
@@ -10717,7 +10797,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>ObjectClass_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -10726,11 +10806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10821,10 +10901,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10850,13 +10930,13 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>335</v>
@@ -10871,16 +10951,16 @@
         <v>326</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>409</v>
       </c>
       <c r="K3" s="111">
-        <v>46878144</v>
+        <v>100009991</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="M3" s="7">
         <v>1000</v>
@@ -10889,13 +10969,13 @@
         <v>415</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>416</v>
@@ -10912,13 +10992,13 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="D4" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>335</v>
@@ -10933,7 +11013,7 @@
         <v>326</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>409</v>
@@ -10942,7 +11022,7 @@
         <v>100002701</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="M4" s="7">
         <v>1000</v>
@@ -10954,10 +11034,10 @@
         <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>416</v>
@@ -10974,13 +11054,13 @@
         <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>558</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>566</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>335</v>
@@ -10995,29 +11075,31 @@
         <v>326</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>486</v>
-      </c>
-      <c r="K5" s="111" t="s">
-        <v>570</v>
-      </c>
-      <c r="L5" s="87"/>
+        <v>578</v>
+      </c>
+      <c r="K5" s="118" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>580</v>
+      </c>
       <c r="M5" s="7">
         <v>1000</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>415</v>
+      <c r="N5" s="119" t="s">
+        <v>579</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>579</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>416</v>
@@ -11034,13 +11116,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>335</v>
@@ -11055,13 +11137,13 @@
         <v>326</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K6" s="111" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="7">
@@ -11074,10 +11156,10 @@
         <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>416</v>
@@ -11094,13 +11176,13 @@
         <v>420</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>335</v>
@@ -11115,13 +11197,13 @@
         <v>326</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="L7" s="86"/>
       <c r="M7" s="7">
@@ -11134,10 +11216,10 @@
         <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>416</v>
@@ -11154,13 +11236,13 @@
         <v>418</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>335</v>
@@ -11175,13 +11257,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K8" s="111" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="L8" s="86"/>
       <c r="M8" s="7">
@@ -11194,10 +11276,10 @@
         <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>416</v>
@@ -11214,13 +11296,13 @@
         <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>335</v>
@@ -11235,13 +11317,13 @@
         <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K9" s="111" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="L9" s="88"/>
       <c r="M9" s="7">
@@ -11254,10 +11336,10 @@
         <v>448</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>416</v>
@@ -11274,13 +11356,13 @@
         <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>560</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>562</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>335</v>
@@ -11295,7 +11377,7 @@
         <v>326</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>443</v>
@@ -11312,10 +11394,10 @@
         <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>416</v>
@@ -11332,7 +11414,7 @@
         <v>422</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -11341,7 +11423,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
       <c r="I11" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="113"/>
@@ -11350,10 +11432,10 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
       <c r="P11" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>416</v>
@@ -11366,7 +11448,7 @@
         <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -11375,7 +11457,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="52"/>
       <c r="I12" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="113"/>
@@ -11384,10 +11466,10 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
       <c r="P12" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>416</v>
@@ -11400,7 +11482,7 @@
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -11409,7 +11491,7 @@
       <c r="G13" s="54"/>
       <c r="H13" s="52"/>
       <c r="I13" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="113"/>
@@ -11418,10 +11500,10 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>416</v>
@@ -11434,13 +11516,13 @@
         <v>414</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>335</v>
@@ -11455,7 +11537,7 @@
         <v>326</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>328</v>
@@ -11476,10 +11558,10 @@
         <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>416</v>
@@ -11496,7 +11578,7 @@
         <v>425</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11505,7 +11587,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="111"/>
@@ -11514,10 +11596,10 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>416</v>
@@ -11530,7 +11612,7 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -11539,7 +11621,7 @@
       <c r="G16" s="54"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="113"/>
@@ -11548,10 +11630,10 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>416</v>
@@ -11564,13 +11646,13 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>335</v>
@@ -11585,13 +11667,13 @@
         <v>326</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>437</v>
       </c>
       <c r="K17" s="111" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="L17" s="91">
         <v>1287755590</v>
@@ -11606,10 +11688,10 @@
         <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>416</v>
@@ -11626,13 +11708,13 @@
         <v>471</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>335</v>
@@ -11647,13 +11729,13 @@
         <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>444</v>
       </c>
       <c r="K18" s="111" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L18" s="86"/>
       <c r="M18" s="7"/>
@@ -11664,10 +11746,10 @@
         <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>416</v>
@@ -11809,13 +11891,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F17:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F17:F18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Browser_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E14 C17:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E14 C17:E18" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>TestEnv_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11825,11 +11907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11862,7 +11944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -11910,12 +11992,12 @@
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="9" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="40" t="s">
         <v>285</v>
       </c>
@@ -11994,7 +12076,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="42" t="s">
@@ -12002,7 +12084,7 @@
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="42" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="42" t="s">
@@ -12050,15 +12132,15 @@
         <v>480</v>
       </c>
       <c r="X3" s="42" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>399</v>
+      <c r="B4" s="94" t="s">
+        <v>402</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="42" t="s">
@@ -12066,7 +12148,7 @@
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G4" s="43"/>
       <c r="H4" s="94" t="s">
@@ -12108,7 +12190,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="42" t="s">
@@ -12116,23 +12198,23 @@
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K5" s="43"/>
       <c r="L5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="42" t="s">
@@ -12144,11 +12226,11 @@
       </c>
       <c r="S5" s="43"/>
       <c r="T5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="42"/>
@@ -12159,7 +12241,7 @@
         <v>289</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="42" t="s">
@@ -12167,7 +12249,7 @@
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="42" t="s">
@@ -12221,31 +12303,33 @@
       <c r="A7" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>381</v>
+      </c>
       <c r="D7" s="94" t="s">
         <v>402</v>
       </c>
       <c r="E7" s="43"/>
-      <c r="F7" s="42" t="s">
-        <v>401</v>
+      <c r="F7" s="94" t="s">
+        <v>402</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="P7" s="96" t="s">
         <v>468</v>
@@ -12256,10 +12340,10 @@
       </c>
       <c r="S7" s="43"/>
       <c r="T7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="V7" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="42"/>
@@ -12270,15 +12354,15 @@
         <v>291</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="42" t="s">
         <v>404</v>
       </c>
       <c r="E8" s="43"/>
-      <c r="F8" s="94" t="s">
-        <v>402</v>
+      <c r="F8" s="42" t="s">
+        <v>404</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="42" t="s">
@@ -12301,7 +12385,7 @@
         <v>380</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R8" s="42" t="s">
         <v>380</v>
@@ -12325,9 +12409,11 @@
         <v>292</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>543</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>381</v>
+      </c>
       <c r="D9" s="42" t="s">
         <v>380</v>
       </c>
@@ -12335,9 +12421,11 @@
         <v>381</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" s="43"/>
+        <v>380</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="H9" s="42" t="s">
         <v>404</v>
       </c>
@@ -12355,7 +12443,7 @@
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="94" t="s">
@@ -12378,21 +12466,16 @@
         <v>293</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>487</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
         <v>398</v>
       </c>
@@ -12413,7 +12496,7 @@
         <v>358</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="R10" s="42" t="s">
         <v>404</v>
@@ -12435,7 +12518,7 @@
         <v>294</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="42" t="s">
@@ -12445,9 +12528,11 @@
         <v>381</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="G11" s="43"/>
+        <v>358</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="H11" s="42" t="s">
         <v>399</v>
       </c>
@@ -12465,11 +12550,11 @@
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S11" s="43"/>
       <c r="T11" s="42" t="s">
@@ -12488,21 +12573,17 @@
         <v>295</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>381</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>487</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="G12" s="43"/>
       <c r="H12" s="42" t="s">
         <v>400</v>
       </c>
@@ -12545,7 +12626,10 @@
         <v>296</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>405</v>
+        <v>380</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>405</v>
@@ -12554,9 +12638,11 @@
         <v>382</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="G13" s="43"/>
+        <v>405</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>487</v>
+      </c>
       <c r="H13" s="42" t="s">
         <v>380</v>
       </c>
@@ -12586,7 +12672,7 @@
       </c>
       <c r="Q13" s="43"/>
       <c r="R13" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="T13" s="42" t="s">
         <v>380</v>
@@ -12608,9 +12694,11 @@
         <v>297</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>542</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D14" s="42" t="s">
         <v>404</v>
       </c>
@@ -12618,31 +12706,31 @@
         <v>382</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="I14" s="60" t="s">
         <v>451</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>455</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>465</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>467</v>
@@ -12671,20 +12759,20 @@
         <v>298</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>543</v>
+        <v>358</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>382</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="G15" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H15" s="94" t="s">
         <v>459</v>
@@ -12709,13 +12797,13 @@
       </c>
       <c r="S15" s="43"/>
       <c r="T15" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="U15" s="42" t="s">
         <v>475</v>
       </c>
       <c r="V15" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="42"/>
@@ -12726,7 +12814,7 @@
         <v>299</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>382</v>
@@ -12738,37 +12826,37 @@
         <v>382</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>543</v>
+        <v>380</v>
       </c>
       <c r="G16" s="43" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="42" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="S16" s="43" t="s">
         <v>382</v>
       </c>
       <c r="T16" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="42" t="s">
@@ -12785,19 +12873,14 @@
         <v>300</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>382</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="42" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>488</v>
+        <v>553</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>358</v>
@@ -12838,7 +12921,7 @@
         <v>475</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="42"/>
@@ -12849,9 +12932,9 @@
         <v>301</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="43"/>
+        <v>404</v>
+      </c>
+      <c r="C18" s="42"/>
       <c r="D18" s="42" t="s">
         <v>358</v>
       </c>
@@ -12859,32 +12942,35 @@
         <v>382</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>555</v>
+        <v>358</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>487</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="42" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S18" s="43"/>
       <c r="T18" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="42" t="s">
@@ -12899,21 +12985,17 @@
         <v>302</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>545</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>382</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>488</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="G19" s="43"/>
       <c r="H19" s="42" t="s">
         <v>405</v>
       </c>
@@ -12953,16 +13035,12 @@
       <c r="A20" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="43"/>
       <c r="D20" s="42" t="s">
         <v>405</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="42" t="s">
-        <v>545</v>
+        <v>405</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="42" t="s">
@@ -12984,7 +13062,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="42" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="S20" s="43"/>
       <c r="T20" s="42" t="s">
@@ -13002,16 +13080,12 @@
       <c r="A21" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="42"/>
       <c r="D21" s="42" t="s">
         <v>404</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="42" t="s">
@@ -13049,18 +13123,13 @@
       <c r="A22" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" s="43"/>
       <c r="D22" s="42" t="s">
         <v>406</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="G22" s="43"/>
+        <v>406</v>
+      </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="K22" s="43"/>
@@ -13084,10 +13153,6 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>306</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="F23" s="42" t="s">
-        <v>406</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
@@ -15741,70 +15806,70 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="L3:L21 R3:R23 H3:H21 J3:J21 P3:P17 V3:V20 T3:T21 D3:D22 F3:F24 X3:X25 N3:N65520 B3:B22 B24:B65519">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="L3:L21 R3:R23 H3:H21 J3:J21 P3:P17 V3:V20 T3:T21 D3:D22 X3:X25 N3:N65520 F3:F22 F24 B24:B65519 B3:B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Keywords_List</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="O1:Q1 S1:S2 G1:M1 C1:C2 B2 E1 D2:R2 T2:Y2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="O1:Q1 S1:S2 G1:M1 C1:C2 B2 E1 D2:R2 T2:Y2" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15812,11 +15877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG172"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG13" sqref="BG13"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,7 +15947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -15914,19 +15979,19 @@
       </c>
       <c r="O1" s="39"/>
       <c r="P1" s="4" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="Q1" s="39"/>
       <c r="R1" s="4" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="S1" s="39"/>
       <c r="T1" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="4" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="4" t="s">
@@ -16001,7 +16066,7 @@
       <c r="BG1" s="39"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="40" t="s">
         <v>285</v>
       </c>
@@ -16209,14 +16274,14 @@
         <v>373</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>495</v>
+        <v>582</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>380</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="42" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="42" t="s">
@@ -16261,49 +16326,49 @@
         <v>373</v>
       </c>
       <c r="AG3" s="43" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="AH3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI3" s="43" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="AJ3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK3" s="43" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="AL3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM3" s="43" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="AN3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO3" s="43" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="AP3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ3" s="43" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="AR3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS3" s="43" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="AT3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU3" s="43" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="AV3" s="42" t="s">
         <v>373</v>
@@ -16315,31 +16380,31 @@
         <v>373</v>
       </c>
       <c r="AY3" s="43" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AZ3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA3" s="43" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="BB3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC3" s="43" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="BD3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE3" s="43" t="s">
-        <v>551</v>
-      </c>
-      <c r="BF3" s="44" t="s">
-        <v>482</v>
-      </c>
-      <c r="BG3" s="45" t="s">
-        <v>484</v>
+        <v>549</v>
+      </c>
+      <c r="BF3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG3" s="43" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -16488,6 +16553,12 @@
       </c>
       <c r="BE4" s="43">
         <v>2</v>
+      </c>
+      <c r="BF4" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="BG4" s="45" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -16518,7 +16589,7 @@
         <v>373</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
@@ -16554,49 +16625,49 @@
         <v>373</v>
       </c>
       <c r="AG5" s="43" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="AH5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI5" s="43" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AJ5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK5" s="43" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AL5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM5" s="43" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="AN5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO5" s="43" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="AP5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ5" s="43" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="AR5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS5" s="43" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="AT5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU5" s="43" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AV5" s="42" t="s">
         <v>373</v>
@@ -16608,25 +16679,25 @@
         <v>373</v>
       </c>
       <c r="AY5" s="43" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="AZ5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA5" s="43" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="BB5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC5" s="43" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="BD5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE5" s="43" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -16772,7 +16843,7 @@
         <v>373</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -16798,49 +16869,49 @@
         <v>373</v>
       </c>
       <c r="AG7" s="43" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="AH7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI7" s="43" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="AJ7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK7" s="43" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AL7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM7" s="43" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="AN7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO7" s="43" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="AP7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ7" s="43" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="AR7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS7" s="43" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="AT7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU7" s="43" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="AV7" s="42"/>
       <c r="AW7" s="43"/>
@@ -16848,25 +16919,25 @@
         <v>373</v>
       </c>
       <c r="AY7" s="43" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AZ7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA7" s="43" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="BB7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC7" s="43" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="BD7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE7" s="43" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -17000,7 +17071,7 @@
         <v>373</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -17026,49 +17097,49 @@
         <v>373</v>
       </c>
       <c r="AG9" s="43" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="AH9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI9" s="43" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="AJ9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK9" s="43" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AL9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM9" s="43" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="AN9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO9" s="43" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="AP9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ9" s="43" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="AR9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS9" s="43" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="AT9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU9" s="43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="AV9" s="42"/>
       <c r="AW9" s="43"/>
@@ -17076,25 +17147,25 @@
         <v>373</v>
       </c>
       <c r="AY9" s="43" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="AZ9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BA9" s="43" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="BB9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC9" s="43" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="BD9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE9" s="43" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -17131,7 +17202,7 @@
         <v>345</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
@@ -17230,7 +17301,7 @@
         <v>373</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -17254,7 +17325,7 @@
         <v>373</v>
       </c>
       <c r="AG11" s="43" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="AH11" s="42"/>
       <c r="AI11" s="43"/>
@@ -17262,7 +17333,7 @@
         <v>373</v>
       </c>
       <c r="AK11" s="43" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="AL11" s="42"/>
       <c r="AM11" s="43"/>
@@ -17270,7 +17341,7 @@
         <v>373</v>
       </c>
       <c r="AO11" s="43" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="AP11" s="42"/>
       <c r="AQ11" s="43"/>
@@ -17278,7 +17349,7 @@
         <v>373</v>
       </c>
       <c r="AS11" s="43" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="AT11" s="42"/>
       <c r="AU11" s="43"/>
@@ -17288,7 +17359,7 @@
         <v>373</v>
       </c>
       <c r="AY11" s="43" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AZ11" s="42"/>
       <c r="BA11" s="43"/>
@@ -17296,7 +17367,7 @@
         <v>373</v>
       </c>
       <c r="BC11" s="43" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="BD11" s="42"/>
       <c r="BE11" s="43"/>
@@ -18968,10 +19039,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="Z3:Z5 B3:B65544 AB3:AB4 J21:J24 F3:F6 X3 J3:J4 J16:J17 N3 F8:F65544 H3 D3:D65544 AF3:AF12 AH3:AH12 AJ3:AJ12 AL3:AL12 AN3:AN12 AP3:AP12 AR3:AR12 AT3:AT12 AV3:AV12 AX3:AX12 AZ3:AZ12 BB3:BB12 BD3:BD12 L3:L22 P3 V3:V5 R3:R12 T3:T11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="Z3:Z5 B3:B65544 AB3:AB4 J21:J24 F3:F6 X3 J3:J4 J16:J17 N3 F8:F65544 H3 D3:D65544 AF3:AF12 AH3:AH12 AJ3:AJ12 AL3:AL12 AN3:AN12 AP3:AP12 AR3:AR12 AT3:AT12 AV3:AV12 AX3:AX12 AZ3:AZ12 BB3:BB12 BD3:BD12 L3:L22 P3 V3:V5 R3:R12 T3:T11 BF3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Keywords_List</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2 AC1:AE2 B2 P1:Q2 E1:E2 D2 C1:C2 AB2 H2:O2 I1:O1 Z2 F2 G1:G2 AF2 AG1:AG2 AH2:AJ2 AK1:AK2 AL2:AN2 AO1:AO2 AP2:AR2 AS1:AS2 AT2:AX2 AY1:AY2 AZ2:BB2 BC1:BC2 BD2:BG2 R2 V2 W1:Y2 S1:U2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2 AC1:AE2 B2 P1:Q2 E1:E2 D2 C1:C2 AB2 H2:O2 I1:O1 Z2 F2 G1:G2 AF2 AG1:AG2 AH2:AJ2 AK1:AK2 AL2:AN2 AO1:AO2 AP2:AR2 AS1:AS2 AT2:AX2 AY1:AY2 AZ2:BB2 BC1:BC2 BD2:BG2 R2 V2 W1:Y2 S1:U2" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18979,7 +19050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBD28431-C6CA-4C12-916F-AB5F62200323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -21,12 +27,12 @@
     <definedName name="ObjectClass_List">OFFSET(Customize!$B$2,0,0,COUNTA(Customize!$B:$B)-1)</definedName>
     <definedName name="TestEnv_List">OFFSET(Customize!$D$2,0,0,COUNTA(Customize!$D:$D)-1)</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="579">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="584">
   <si>
     <t>Event_Name</t>
   </si>
@@ -1514,9 +1520,6 @@
     <t>"PureTv_VDP_CAI",FileLocation,Tagtobereplaced,TagValue</t>
   </si>
   <si>
-    <t>"Q1",FileLocation,Tagtobereplaced,TagValue</t>
-  </si>
-  <si>
     <t>"Q2",FileLocation,Tagtobereplaced,TagValue</t>
   </si>
   <si>
@@ -1739,9 +1742,6 @@
     <t>0142686703700923078249</t>
   </si>
   <si>
-    <t>N25577606</t>
-  </si>
-  <si>
     <t>K13543962</t>
   </si>
   <si>
@@ -1763,20 +1763,41 @@
     <t>May_2018</t>
   </si>
   <si>
-    <t>0142686703700923089110</t>
+    <t>"MDW Web"</t>
+  </si>
+  <si>
+    <t>IOM_LoginPage</t>
+  </si>
+  <si>
+    <t>TEST_ENV, IOM_LoginPage</t>
   </si>
   <si>
     <t>FulfillmentMasterProcess-Redesign</t>
+  </si>
+  <si>
+    <t>Q.ORDEH115.ORDEH.EVENT.UPDA.ORDEH116</t>
+  </si>
+  <si>
+    <t>10293845tg123</t>
+  </si>
+  <si>
+    <t>N51436498</t>
+  </si>
+  <si>
+    <t>"Resp_RequestId",FileLocation,Tagtobereplaced,TagValue</t>
+  </si>
+  <si>
+    <t>13745993001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="00000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1893,6 +1914,18 @@
       <color rgb="FF00B050"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2125,7 +2158,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2420,6 +2453,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2441,10 +2480,10 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="4"/>
-    <cellStyle name="Normal 5" xfId="3"/>
-    <cellStyle name="Normal_Object_Description" xfId="2"/>
-    <cellStyle name="Normal_Sheet1" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 5" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal_Object_Description" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal_Sheet1" xfId="1" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="140">
     <dxf>
@@ -3878,6 +3917,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -3925,7 +3967,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3958,9 +4000,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3993,6 +4052,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4168,11 +4244,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4188,38 +4264,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="118" t="s">
+      <c r="B1" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="118" t="s">
+      <c r="C1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="118" t="s">
+      <c r="D1" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="120" t="s">
+      <c r="E1" s="122" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="118" t="s">
+      <c r="F1" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="118" t="s">
+      <c r="G1" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="121"/>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="119" t="s">
+      <c r="A2" s="123"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="119" t="s">
+      <c r="G2" s="121" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4726,7 +4802,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>ObjectClass_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -4735,12 +4811,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView topLeftCell="A52" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -4775,7 +4849,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="27" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,7 +4863,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="27" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4827,7 +4901,7 @@
       </c>
       <c r="C6" s="26"/>
       <c r="D6" s="26" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4839,7 +4913,7 @@
       </c>
       <c r="C7" s="26"/>
       <c r="D7" s="26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4851,7 +4925,7 @@
       </c>
       <c r="C8" s="27"/>
       <c r="D8" s="27" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -4863,7 +4937,7 @@
       </c>
       <c r="C9" s="27"/>
       <c r="D9" s="27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5011,7 +5085,7 @@
     </row>
     <row r="24" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B24" s="26" t="s">
         <v>321</v>
@@ -5126,7 +5200,7 @@
     </row>
     <row r="38" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B38" s="51"/>
       <c r="C38" s="51"/>
@@ -5134,7 +5208,7 @@
     </row>
     <row r="39" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B39" s="51"/>
       <c r="C39" s="51"/>
@@ -5142,7 +5216,7 @@
     </row>
     <row r="40" spans="1:4" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="31" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B40" s="51"/>
       <c r="C40" s="51"/>
@@ -5258,12 +5332,12 @@
     </row>
     <row r="59" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="25" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="60" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="61" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -5288,12 +5362,12 @@
     </row>
     <row r="65" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="25" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="66" spans="1:1" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="25" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -5585,11 +5659,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C877"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6701,9 +6775,15 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="34"/>
-      <c r="B101" s="34"/>
-      <c r="C101" s="34"/>
+      <c r="A101" s="34" t="s">
+        <v>576</v>
+      </c>
+      <c r="B101" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="C101" s="34" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="102" spans="1:3" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="34"/>
@@ -10717,7 +10797,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>ObjectClass_List</formula1>
     </dataValidation>
   </dataValidations>
@@ -10726,11 +10806,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10821,10 +10901,10 @@
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="58" t="s">
+        <v>557</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -10850,13 +10930,13 @@
         <v>411</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>559</v>
+        <v>385</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>335</v>
@@ -10871,16 +10951,16 @@
         <v>326</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>409</v>
       </c>
       <c r="K3" s="111">
-        <v>46878144</v>
+        <v>100009991</v>
       </c>
       <c r="L3" s="87" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="M3" s="7">
         <v>1000</v>
@@ -10892,10 +10972,10 @@
         <v>488</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q3" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R3" s="7" t="s">
         <v>416</v>
@@ -10912,13 +10992,13 @@
         <v>412</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>335</v>
@@ -10933,7 +11013,7 @@
         <v>326</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>409</v>
@@ -10942,7 +11022,7 @@
         <v>100002701</v>
       </c>
       <c r="L4" s="87" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M4" s="7">
         <v>1000</v>
@@ -10954,10 +11034,10 @@
         <v>348</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R4" s="7" t="s">
         <v>416</v>
@@ -10974,13 +11054,13 @@
         <v>417</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>385</v>
+        <v>558</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>562</v>
+        <v>472</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>335</v>
@@ -10995,29 +11075,31 @@
         <v>326</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="K5" s="111" t="s">
-        <v>569</v>
-      </c>
-      <c r="L5" s="87"/>
+      <c r="K5" s="118" t="s">
+        <v>581</v>
+      </c>
+      <c r="L5" s="87" t="s">
+        <v>580</v>
+      </c>
       <c r="M5" s="7">
         <v>1000</v>
       </c>
-      <c r="N5" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>415</v>
+      <c r="N5" s="119" t="s">
+        <v>579</v>
+      </c>
+      <c r="O5" s="119" t="s">
+        <v>579</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R5" s="7" t="s">
         <v>416</v>
@@ -11034,13 +11116,13 @@
         <v>413</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>335</v>
@@ -11055,13 +11137,13 @@
         <v>326</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K6" s="111" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="L6" s="86"/>
       <c r="M6" s="7">
@@ -11074,10 +11156,10 @@
         <v>446</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R6" s="7" t="s">
         <v>416</v>
@@ -11094,13 +11176,13 @@
         <v>420</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>335</v>
@@ -11115,13 +11197,13 @@
         <v>326</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>429</v>
       </c>
       <c r="K7" s="111" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="L7" s="86"/>
       <c r="M7" s="7">
@@ -11134,10 +11216,10 @@
         <v>446</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R7" s="7" t="s">
         <v>416</v>
@@ -11154,13 +11236,13 @@
         <v>418</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>335</v>
@@ -11175,13 +11257,13 @@
         <v>326</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K8" s="111" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="L8" s="86"/>
       <c r="M8" s="7">
@@ -11194,10 +11276,10 @@
         <v>448</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R8" s="7" t="s">
         <v>416</v>
@@ -11214,13 +11296,13 @@
         <v>419</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>335</v>
@@ -11235,13 +11317,13 @@
         <v>326</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>436</v>
       </c>
       <c r="K9" s="111" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="L9" s="88"/>
       <c r="M9" s="7">
@@ -11254,10 +11336,10 @@
         <v>448</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R9" s="7" t="s">
         <v>416</v>
@@ -11274,13 +11356,13 @@
         <v>421</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>335</v>
@@ -11295,7 +11377,7 @@
         <v>326</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>443</v>
@@ -11312,10 +11394,10 @@
         <v>448</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>416</v>
@@ -11332,7 +11414,7 @@
         <v>422</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C11" s="53"/>
       <c r="D11" s="53"/>
@@ -11341,7 +11423,7 @@
       <c r="G11" s="54"/>
       <c r="H11" s="52"/>
       <c r="I11" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J11" s="54"/>
       <c r="K11" s="113"/>
@@ -11350,10 +11432,10 @@
       <c r="N11" s="54"/>
       <c r="O11" s="54"/>
       <c r="P11" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R11" s="7" t="s">
         <v>416</v>
@@ -11366,7 +11448,7 @@
         <v>423</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C12" s="53"/>
       <c r="D12" s="53"/>
@@ -11375,7 +11457,7 @@
       <c r="G12" s="54"/>
       <c r="H12" s="52"/>
       <c r="I12" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J12" s="54"/>
       <c r="K12" s="113"/>
@@ -11384,10 +11466,10 @@
       <c r="N12" s="54"/>
       <c r="O12" s="54"/>
       <c r="P12" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R12" s="7" t="s">
         <v>416</v>
@@ -11400,7 +11482,7 @@
         <v>424</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C13" s="53"/>
       <c r="D13" s="53"/>
@@ -11409,7 +11491,7 @@
       <c r="G13" s="54"/>
       <c r="H13" s="52"/>
       <c r="I13" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J13" s="54"/>
       <c r="K13" s="113"/>
@@ -11418,10 +11500,10 @@
       <c r="N13" s="54"/>
       <c r="O13" s="54"/>
       <c r="P13" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R13" s="7" t="s">
         <v>416</v>
@@ -11434,13 +11516,13 @@
         <v>414</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>390</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>335</v>
@@ -11455,7 +11537,7 @@
         <v>326</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>328</v>
@@ -11476,10 +11558,10 @@
         <v>348</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R14" s="7" t="s">
         <v>416</v>
@@ -11496,7 +11578,7 @@
         <v>425</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -11505,7 +11587,7 @@
       <c r="G15" s="7"/>
       <c r="H15" s="2"/>
       <c r="I15" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J15" s="7"/>
       <c r="K15" s="111"/>
@@ -11514,10 +11596,10 @@
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
       <c r="P15" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R15" s="7" t="s">
         <v>416</v>
@@ -11530,7 +11612,7 @@
         <v>426</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="52"/>
@@ -11539,7 +11621,7 @@
       <c r="G16" s="54"/>
       <c r="H16" s="2"/>
       <c r="I16" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J16" s="54"/>
       <c r="K16" s="113"/>
@@ -11548,10 +11630,10 @@
       <c r="N16" s="54"/>
       <c r="O16" s="54"/>
       <c r="P16" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R16" s="7" t="s">
         <v>416</v>
@@ -11564,13 +11646,13 @@
         <v>427</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>335</v>
@@ -11585,13 +11667,13 @@
         <v>326</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>437</v>
       </c>
       <c r="K17" s="111" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L17" s="91">
         <v>1287755590</v>
@@ -11606,10 +11688,10 @@
         <v>434</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R17" s="7" t="s">
         <v>416</v>
@@ -11626,13 +11708,13 @@
         <v>471</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>335</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>335</v>
@@ -11647,13 +11729,13 @@
         <v>326</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>444</v>
       </c>
       <c r="K18" s="111" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L18" s="86"/>
       <c r="M18" s="7"/>
@@ -11664,10 +11746,10 @@
         <v>448</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="R18" s="7" t="s">
         <v>416</v>
@@ -11809,13 +11891,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F17:F18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F14 F17:F18" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Browser_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E14 C17:E18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E14 C17:E18" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>TestEnv_List</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B18" xr:uid="{00000000-0002-0000-0300-000002000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11825,11 +11907,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11862,7 +11944,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -11910,12 +11992,12 @@
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="Y1" s="39"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="40" t="s">
         <v>285</v>
       </c>
@@ -11994,7 +12076,7 @@
         <v>286</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="C3" s="43"/>
       <c r="D3" s="42" t="s">
@@ -12002,7 +12084,7 @@
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="42" t="s">
-        <v>483</v>
+        <v>398</v>
       </c>
       <c r="G3" s="43"/>
       <c r="H3" s="42" t="s">
@@ -12050,15 +12132,15 @@
         <v>480</v>
       </c>
       <c r="X3" s="42" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="41" t="s">
         <v>287</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>399</v>
+      <c r="B4" s="94" t="s">
+        <v>402</v>
       </c>
       <c r="C4" s="43"/>
       <c r="D4" s="42" t="s">
@@ -12066,7 +12148,7 @@
       </c>
       <c r="E4" s="43"/>
       <c r="F4" s="42" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="G4" s="43"/>
       <c r="H4" s="94" t="s">
@@ -12108,7 +12190,7 @@
         <v>288</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="42" t="s">
@@ -12116,23 +12198,23 @@
       </c>
       <c r="E5" s="43"/>
       <c r="F5" s="42" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="G5" s="43"/>
       <c r="H5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I5" s="60"/>
       <c r="J5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K5" s="43"/>
       <c r="L5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M5" s="43"/>
       <c r="N5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O5" s="43"/>
       <c r="P5" s="42" t="s">
@@ -12144,11 +12226,11 @@
       </c>
       <c r="S5" s="43"/>
       <c r="T5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U5" s="7"/>
       <c r="V5" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W5" s="7"/>
       <c r="X5" s="42"/>
@@ -12159,7 +12241,7 @@
         <v>289</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>401</v>
+        <v>380</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="42" t="s">
@@ -12167,7 +12249,7 @@
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="42" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G6" s="43"/>
       <c r="H6" s="42" t="s">
@@ -12221,31 +12303,33 @@
       <c r="A7" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>402</v>
-      </c>
-      <c r="C7" s="43"/>
+      <c r="B7" s="42" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>381</v>
+      </c>
       <c r="D7" s="94" t="s">
         <v>402</v>
       </c>
       <c r="E7" s="43"/>
-      <c r="F7" s="42" t="s">
-        <v>401</v>
+      <c r="F7" s="94" t="s">
+        <v>402</v>
       </c>
       <c r="G7" s="43"/>
       <c r="H7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I7" s="43"/>
       <c r="J7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="L7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M7" s="42"/>
       <c r="N7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="P7" s="96" t="s">
         <v>468</v>
@@ -12256,10 +12340,10 @@
       </c>
       <c r="S7" s="43"/>
       <c r="T7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="V7" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W7" s="7"/>
       <c r="X7" s="42"/>
@@ -12270,15 +12354,15 @@
         <v>291</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="C8" s="43"/>
       <c r="D8" s="42" t="s">
         <v>404</v>
       </c>
       <c r="E8" s="43"/>
-      <c r="F8" s="94" t="s">
-        <v>402</v>
+      <c r="F8" s="42" t="s">
+        <v>404</v>
       </c>
       <c r="G8" s="43"/>
       <c r="H8" s="42" t="s">
@@ -12301,7 +12385,7 @@
         <v>380</v>
       </c>
       <c r="Q8" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R8" s="42" t="s">
         <v>380</v>
@@ -12325,9 +12409,11 @@
         <v>292</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="C9" s="43"/>
+        <v>543</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>381</v>
+      </c>
       <c r="D9" s="42" t="s">
         <v>380</v>
       </c>
@@ -12335,9 +12421,11 @@
         <v>381</v>
       </c>
       <c r="F9" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="G9" s="43"/>
+        <v>380</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="H9" s="42" t="s">
         <v>404</v>
       </c>
@@ -12355,7 +12443,7 @@
       </c>
       <c r="O9" s="42"/>
       <c r="P9" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="Q9" s="43"/>
       <c r="R9" s="94" t="s">
@@ -12378,21 +12466,16 @@
         <v>293</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E10" s="43"/>
       <c r="F10" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>486</v>
-      </c>
+        <v>542</v>
+      </c>
+      <c r="G10" s="43"/>
       <c r="H10" s="42" t="s">
         <v>398</v>
       </c>
@@ -12413,7 +12496,7 @@
         <v>358</v>
       </c>
       <c r="Q10" s="43" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="R10" s="42" t="s">
         <v>404</v>
@@ -12435,7 +12518,7 @@
         <v>294</v>
       </c>
       <c r="B11" s="42" t="s">
-        <v>358</v>
+        <v>404</v>
       </c>
       <c r="C11" s="43"/>
       <c r="D11" s="42" t="s">
@@ -12445,9 +12528,11 @@
         <v>381</v>
       </c>
       <c r="F11" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="G11" s="43"/>
+        <v>358</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>486</v>
+      </c>
       <c r="H11" s="42" t="s">
         <v>399</v>
       </c>
@@ -12465,11 +12550,11 @@
       </c>
       <c r="O11" s="42"/>
       <c r="P11" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="Q11" s="43"/>
       <c r="R11" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S11" s="43"/>
       <c r="T11" s="42" t="s">
@@ -12488,21 +12573,17 @@
         <v>295</v>
       </c>
       <c r="B12" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>381</v>
-      </c>
+        <v>541</v>
+      </c>
+      <c r="C12" s="43"/>
       <c r="D12" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E12" s="43"/>
       <c r="F12" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="G12" s="43" t="s">
-        <v>486</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="G12" s="43"/>
       <c r="H12" s="42" t="s">
         <v>400</v>
       </c>
@@ -12545,7 +12626,10 @@
         <v>296</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>405</v>
+        <v>380</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>382</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>405</v>
@@ -12554,9 +12638,11 @@
         <v>382</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="G13" s="43"/>
+        <v>405</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>487</v>
+      </c>
       <c r="H13" s="42" t="s">
         <v>380</v>
       </c>
@@ -12586,7 +12672,7 @@
       </c>
       <c r="Q13" s="43"/>
       <c r="R13" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="T13" s="42" t="s">
         <v>380</v>
@@ -12608,9 +12694,11 @@
         <v>297</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C14" s="43"/>
+        <v>542</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>382</v>
+      </c>
       <c r="D14" s="42" t="s">
         <v>404</v>
       </c>
@@ -12618,31 +12706,31 @@
         <v>382</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G14" s="43" t="s">
         <v>487</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I14" s="60" t="s">
         <v>451</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="K14" s="43" t="s">
         <v>455</v>
       </c>
       <c r="L14" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M14" s="43" t="s">
         <v>465</v>
       </c>
       <c r="N14" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="O14" s="43" t="s">
         <v>467</v>
@@ -12671,17 +12759,17 @@
         <v>298</v>
       </c>
       <c r="B15" s="42" t="s">
-        <v>542</v>
+        <v>358</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E15" s="43" t="s">
         <v>382</v>
       </c>
       <c r="F15" s="42" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="G15" s="43" t="s">
         <v>487</v>
@@ -12709,13 +12797,13 @@
       </c>
       <c r="S15" s="43"/>
       <c r="T15" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="U15" s="42" t="s">
         <v>475</v>
       </c>
       <c r="V15" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="W15" s="7"/>
       <c r="X15" s="42"/>
@@ -12726,7 +12814,7 @@
         <v>299</v>
       </c>
       <c r="B16" s="42" t="s">
-        <v>380</v>
+        <v>543</v>
       </c>
       <c r="C16" s="43" t="s">
         <v>382</v>
@@ -12738,37 +12826,37 @@
         <v>382</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>542</v>
+        <v>380</v>
       </c>
       <c r="G16" s="43" t="s">
         <v>487</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I16" s="43"/>
       <c r="J16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="K16" s="43"/>
       <c r="L16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M16" s="43"/>
       <c r="N16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="O16" s="43"/>
       <c r="P16" s="42"/>
       <c r="Q16" s="43"/>
       <c r="R16" s="42" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S16" s="43" t="s">
         <v>382</v>
       </c>
       <c r="T16" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="U16" s="7"/>
       <c r="V16" s="42" t="s">
@@ -12785,19 +12873,14 @@
         <v>300</v>
       </c>
       <c r="B17" s="42" t="s">
-        <v>543</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>382</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="C17" s="43"/>
       <c r="D17" s="42" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>380</v>
-      </c>
-      <c r="G17" s="43" t="s">
-        <v>487</v>
+        <v>553</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>358</v>
@@ -12838,7 +12921,7 @@
         <v>475</v>
       </c>
       <c r="V17" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W17" s="7"/>
       <c r="X17" s="42"/>
@@ -12849,9 +12932,9 @@
         <v>301</v>
       </c>
       <c r="B18" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="C18" s="43"/>
+        <v>404</v>
+      </c>
+      <c r="C18" s="42"/>
       <c r="D18" s="42" t="s">
         <v>358</v>
       </c>
@@ -12859,32 +12942,35 @@
         <v>382</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>554</v>
+        <v>358</v>
+      </c>
+      <c r="G18" s="43" t="s">
+        <v>487</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="K18" s="43"/>
       <c r="L18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M18" s="43"/>
       <c r="N18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O18" s="43"/>
       <c r="P18" s="43"/>
       <c r="Q18" s="43"/>
       <c r="R18" s="42" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S18" s="43"/>
       <c r="T18" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="U18" s="7"/>
       <c r="V18" s="42" t="s">
@@ -12899,21 +12985,17 @@
         <v>302</v>
       </c>
       <c r="B19" s="42" t="s">
-        <v>544</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>382</v>
-      </c>
+        <v>406</v>
+      </c>
+      <c r="C19" s="43"/>
       <c r="D19" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E19" s="43"/>
       <c r="F19" s="42" t="s">
-        <v>358</v>
-      </c>
-      <c r="G19" s="43" t="s">
-        <v>487</v>
-      </c>
+        <v>543</v>
+      </c>
+      <c r="G19" s="43"/>
       <c r="H19" s="42" t="s">
         <v>405</v>
       </c>
@@ -12953,16 +13035,12 @@
       <c r="A20" s="41" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="42" t="s">
-        <v>405</v>
-      </c>
-      <c r="C20" s="43"/>
       <c r="D20" s="42" t="s">
         <v>405</v>
       </c>
       <c r="E20" s="43"/>
       <c r="F20" s="42" t="s">
-        <v>544</v>
+        <v>405</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="42" t="s">
@@ -12984,7 +13062,7 @@
       <c r="P20" s="43"/>
       <c r="Q20" s="43"/>
       <c r="R20" s="42" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="S20" s="43"/>
       <c r="T20" s="42" t="s">
@@ -13002,16 +13080,12 @@
       <c r="A21" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="C21" s="42"/>
       <c r="D21" s="42" t="s">
         <v>404</v>
       </c>
       <c r="E21" s="43"/>
       <c r="F21" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="42" t="s">
@@ -13049,18 +13123,13 @@
       <c r="A22" s="41" t="s">
         <v>305</v>
       </c>
-      <c r="B22" s="42" t="s">
-        <v>406</v>
-      </c>
-      <c r="C22" s="43"/>
       <c r="D22" s="42" t="s">
         <v>406</v>
       </c>
       <c r="E22" s="43"/>
       <c r="F22" s="42" t="s">
-        <v>404</v>
-      </c>
-      <c r="G22" s="43"/>
+        <v>406</v>
+      </c>
       <c r="H22" s="43"/>
       <c r="I22" s="43"/>
       <c r="K22" s="43"/>
@@ -13084,10 +13153,6 @@
     <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>306</v>
-      </c>
-      <c r="C23" s="43"/>
-      <c r="F23" s="42" t="s">
-        <v>406</v>
       </c>
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
@@ -15741,70 +15806,70 @@
     <mergeCell ref="A1:A2"/>
   </mergeCells>
   <conditionalFormatting sqref="N1">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="37" priority="31" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="cellIs" dxfId="36" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="36" priority="21" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1">
-    <cfRule type="cellIs" dxfId="35" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="35" priority="17" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="34" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="16" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1">
-    <cfRule type="cellIs" dxfId="33" priority="9" operator="notEqual">
+    <cfRule type="cellIs" dxfId="33" priority="10" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1">
-    <cfRule type="cellIs" dxfId="32" priority="8" operator="notEqual">
+    <cfRule type="cellIs" dxfId="32" priority="9" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="cellIs" dxfId="31" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="31" priority="8" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1">
-    <cfRule type="cellIs" dxfId="30" priority="6" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="7" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="29" priority="5" operator="notEqual">
+    <cfRule type="cellIs" dxfId="29" priority="6" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="28" priority="4" operator="notEqual">
+    <cfRule type="cellIs" dxfId="28" priority="5" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="cellIs" dxfId="27" priority="3" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="4" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1">
-    <cfRule type="cellIs" dxfId="26" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="26" priority="2" operator="notEqual">
       <formula>""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="L3:L21 R3:R23 H3:H21 J3:J21 P3:P17 V3:V20 T3:T21 D3:D22 F3:F24 X3:X25 N3:N65520 B3:B22 B24:B65519">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="L3:L21 R3:R23 H3:H21 J3:J21 P3:P17 V3:V20 T3:T21 D3:D22 X3:X25 N3:N65520 F3:F22 F24 B24:B65519 B3:B19" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Keywords_List</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="O1:Q1 S1:S2 G1:M1 C1:C2 B2 E1 D2:R2 T2:Y2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="O1:Q1 S1:S2 G1:M1 C1:C2 B2 E1 D2:R2 T2:Y2" xr:uid="{00000000-0002-0000-0400-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15812,11 +15877,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BG172"/>
   <sheetViews>
-    <sheetView topLeftCell="BE1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BG3" sqref="BG3"/>
+    <sheetView topLeftCell="Q1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15882,7 +15947,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="124" t="s">
         <v>284</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -15914,19 +15979,19 @@
       </c>
       <c r="O1" s="39"/>
       <c r="P1" s="4" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="Q1" s="39"/>
       <c r="R1" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="S1" s="39"/>
       <c r="T1" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="U1" s="39"/>
       <c r="V1" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="W1" s="39"/>
       <c r="X1" s="4" t="s">
@@ -16001,7 +16066,7 @@
       <c r="BG1" s="39"/>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="A2" s="123"/>
+      <c r="A2" s="125"/>
       <c r="B2" s="40" t="s">
         <v>285</v>
       </c>
@@ -16209,14 +16274,14 @@
         <v>373</v>
       </c>
       <c r="M3" s="43" t="s">
-        <v>494</v>
+        <v>582</v>
       </c>
       <c r="N3" s="42" t="s">
         <v>380</v>
       </c>
       <c r="O3" s="43"/>
       <c r="P3" s="42" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="Q3" s="43"/>
       <c r="R3" s="42" t="s">
@@ -16261,49 +16326,49 @@
         <v>373</v>
       </c>
       <c r="AG3" s="43" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AH3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI3" s="43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AJ3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK3" s="43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="AL3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM3" s="43" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="AN3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO3" s="43" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="AP3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ3" s="43" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="AR3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS3" s="43" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="AT3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU3" s="43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AV3" s="42" t="s">
         <v>373</v>
@@ -16321,25 +16386,25 @@
         <v>373</v>
       </c>
       <c r="BA3" s="43" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="BB3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC3" s="43" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="BD3" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE3" s="43" t="s">
-        <v>550</v>
-      </c>
-      <c r="BF3" s="44" t="s">
-        <v>482</v>
-      </c>
-      <c r="BG3" s="45" t="s">
-        <v>484</v>
+        <v>549</v>
+      </c>
+      <c r="BF3" s="42" t="s">
+        <v>16</v>
+      </c>
+      <c r="BG3" s="43" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
@@ -16488,6 +16553,12 @@
       </c>
       <c r="BE4" s="43">
         <v>2</v>
+      </c>
+      <c r="BF4" s="44" t="s">
+        <v>482</v>
+      </c>
+      <c r="BG4" s="45" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -16518,7 +16589,7 @@
         <v>373</v>
       </c>
       <c r="M5" s="43" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N5" s="43"/>
       <c r="O5" s="43"/>
@@ -16554,49 +16625,49 @@
         <v>373</v>
       </c>
       <c r="AG5" s="43" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AH5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI5" s="43" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="AJ5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK5" s="43" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AL5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM5" s="43" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="AN5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO5" s="43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="AP5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ5" s="43" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="AR5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS5" s="43" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AT5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU5" s="43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="AV5" s="42" t="s">
         <v>373</v>
@@ -16614,19 +16685,19 @@
         <v>373</v>
       </c>
       <c r="BA5" s="43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="BB5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC5" s="43" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="BD5" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE5" s="43" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -16772,7 +16843,7 @@
         <v>373</v>
       </c>
       <c r="M7" s="43" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N7" s="43"/>
       <c r="O7" s="43"/>
@@ -16798,49 +16869,49 @@
         <v>373</v>
       </c>
       <c r="AG7" s="43" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AH7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI7" s="43" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AJ7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK7" s="43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AL7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM7" s="43" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="AN7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO7" s="43" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="AP7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ7" s="43" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AR7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS7" s="43" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="AT7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU7" s="43" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="AV7" s="42"/>
       <c r="AW7" s="43"/>
@@ -16854,19 +16925,19 @@
         <v>373</v>
       </c>
       <c r="BA7" s="43" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="BB7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC7" s="43" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="BD7" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE7" s="43" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -17000,7 +17071,7 @@
         <v>373</v>
       </c>
       <c r="M9" s="43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N9" s="43"/>
       <c r="O9" s="43"/>
@@ -17026,49 +17097,49 @@
         <v>373</v>
       </c>
       <c r="AG9" s="43" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="AH9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AI9" s="43" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="AJ9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AK9" s="43" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="AL9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AM9" s="43" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AN9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AO9" s="43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AP9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AQ9" s="43" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="AR9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AS9" s="43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="AT9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="AU9" s="43" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="AV9" s="42"/>
       <c r="AW9" s="43"/>
@@ -17082,19 +17153,19 @@
         <v>373</v>
       </c>
       <c r="BA9" s="43" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="BB9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BC9" s="43" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="BD9" s="42" t="s">
         <v>373</v>
       </c>
       <c r="BE9" s="43" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -17131,7 +17202,7 @@
         <v>345</v>
       </c>
       <c r="U10" s="42" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="V10" s="42"/>
       <c r="W10" s="42"/>
@@ -17230,7 +17301,7 @@
         <v>373</v>
       </c>
       <c r="M11" s="43" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N11" s="43"/>
       <c r="O11" s="43"/>
@@ -17254,7 +17325,7 @@
         <v>373</v>
       </c>
       <c r="AG11" s="43" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AH11" s="42"/>
       <c r="AI11" s="43"/>
@@ -17262,7 +17333,7 @@
         <v>373</v>
       </c>
       <c r="AK11" s="43" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="AL11" s="42"/>
       <c r="AM11" s="43"/>
@@ -17270,7 +17341,7 @@
         <v>373</v>
       </c>
       <c r="AO11" s="43" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="AP11" s="42"/>
       <c r="AQ11" s="43"/>
@@ -17278,7 +17349,7 @@
         <v>373</v>
       </c>
       <c r="AS11" s="43" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AT11" s="42"/>
       <c r="AU11" s="43"/>
@@ -17296,7 +17367,7 @@
         <v>373</v>
       </c>
       <c r="BC11" s="43" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="BD11" s="42"/>
       <c r="BE11" s="43"/>
@@ -18968,10 +19039,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="Z3:Z5 B3:B65544 AB3:AB4 J21:J24 F3:F6 X3 J3:J4 J16:J17 N3 F8:F65544 H3 D3:D65544 AF3:AF12 AH3:AH12 AJ3:AJ12 AL3:AL12 AN3:AN12 AP3:AP12 AR3:AR12 AT3:AT12 AV3:AV12 AX3:AX12 AZ3:AZ12 BB3:BB12 BD3:BD12 L3:L22 P3 V3:V5 R3:R12 T3:T11">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="Invalid Keyword" error="Please select the Keyword from the droplist" promptTitle="ENTER PARAMETERS" prompt="Enter the correct parameters for the KEYWORD selected._x000a__x000a_Refer &quot;Keywords&quot; sheet for how to use Keywords." sqref="Z3:Z5 B3:B65544 AB3:AB4 J21:J24 F3:F6 X3 J3:J4 J16:J17 N3 F8:F65544 H3 D3:D65544 AF3:AF12 AH3:AH12 AJ3:AJ12 AL3:AL12 AN3:AN12 AP3:AP12 AR3:AR12 AT3:AT12 AV3:AV12 AX3:AX12 AZ3:AZ12 BB3:BB12 BD3:BD12 L3:L22 P3 V3:V5 R3:R12 T3:T11 BF3" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Keywords_List</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2 AC1:AE2 B2 P1:Q2 E1:E2 D2 C1:C2 AB2 H2:O2 I1:O1 Z2 F2 G1:G2 AF2 AG1:AG2 AH2:AJ2 AK1:AK2 AL2:AN2 AO1:AO2 AP2:AR2 AS1:AS2 AT2:AX2 AY1:AY2 AZ2:BB2 BC1:BC2 BD2:BG2 R2 V2 W1:Y2 S1:U2"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="AA1:AA2 AC1:AE2 B2 P1:Q2 E1:E2 D2 C1:C2 AB2 H2:O2 I1:O1 Z2 F2 G1:G2 AF2 AG1:AG2 AH2:AJ2 AK1:AK2 AL2:AN2 AO1:AO2 AP2:AR2 AS1:AS2 AT2:AX2 AY1:AY2 AZ2:BB2 BC1:BC2 BD2:BG2 R2 V2 W1:Y2 S1:U2" xr:uid="{00000000-0002-0000-0500-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18979,7 +19050,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{EBD28431-C6CA-4C12-916F-AB5F62200323}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67836BD6-F2E5-44A6-BEF7-5645668621B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="584">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1447" uniqueCount="585">
   <si>
     <t>Event_Name</t>
   </si>
@@ -1788,6 +1788,9 @@
   </si>
   <si>
     <t>13745993001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FFWF_BCS_01_FULFILLMENT_ENJ_MASTER_PROCESS_ENSEMBLE_NEW_INSTALL_ORDER </t>
   </si>
 </sst>
 </file>
@@ -10809,8 +10812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10927,7 +10930,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="95" t="s">
-        <v>411</v>
+        <v>584</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>385</v>
@@ -11910,7 +11913,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:Y151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B3" sqref="B3:C19"/>
     </sheetView>
   </sheetViews>

--- a/Data/FFWF_Data.xlsx
+++ b/Data/FFWF_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\jenkins\workspace\FFWF_QA_Automation\FFWF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{67836BD6-F2E5-44A6-BEF7-5645668621B7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{33B2D082-5736-4564-A293-A3EA15F22630}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="45" windowWidth="19155" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10812,7 +10812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
